--- a/Google_Attendance.xlsx
+++ b/Google_Attendance.xlsx
@@ -428,10 +428,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -463,11 +463,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -487,11 +482,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -504,11 +494,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -521,11 +506,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -538,11 +518,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -555,11 +530,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
@@ -572,11 +542,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
@@ -596,11 +561,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
@@ -613,11 +573,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
@@ -630,11 +585,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
@@ -668,11 +618,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
@@ -685,11 +630,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
@@ -702,11 +642,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
@@ -740,11 +675,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
@@ -757,11 +687,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
@@ -774,11 +699,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
@@ -805,11 +725,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
@@ -829,11 +744,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
@@ -846,11 +756,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
@@ -870,11 +775,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
@@ -894,11 +794,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
@@ -918,11 +813,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
@@ -949,11 +839,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
@@ -966,11 +851,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
@@ -990,11 +870,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
@@ -1007,11 +882,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
@@ -1024,11 +894,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
@@ -1041,11 +906,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
@@ -1065,11 +925,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
@@ -1082,11 +937,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
@@ -1099,11 +949,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
@@ -1123,11 +968,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
@@ -1140,11 +980,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
@@ -1157,11 +992,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
@@ -1181,11 +1011,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
@@ -1198,11 +1023,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
@@ -1215,11 +1035,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
@@ -1232,11 +1047,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
@@ -1256,11 +1066,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
@@ -1280,11 +1085,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
@@ -1297,11 +1097,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
@@ -1314,11 +1109,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
@@ -1331,11 +1121,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
@@ -1348,11 +1133,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -1365,11 +1145,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
@@ -1389,11 +1164,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
@@ -1434,11 +1204,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
@@ -1451,11 +1216,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
@@ -1475,11 +1235,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
@@ -1492,11 +1247,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
@@ -1523,11 +1273,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
@@ -1540,11 +1285,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
@@ -1557,11 +1297,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
@@ -1574,11 +1309,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
@@ -1605,11 +1335,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
@@ -1622,11 +1347,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
@@ -1646,11 +1366,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
@@ -1663,11 +1378,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
@@ -1680,11 +1390,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
@@ -1697,11 +1402,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
@@ -1721,11 +1421,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
@@ -1738,11 +1433,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
@@ -1769,11 +1459,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
@@ -1786,11 +1471,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
@@ -1803,11 +1483,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
@@ -1834,11 +1509,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
@@ -1851,11 +1521,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
@@ -1868,11 +1533,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
@@ -1885,11 +1545,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
@@ -1902,11 +1557,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
@@ -1919,11 +1569,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
@@ -1936,11 +1581,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
@@ -1953,11 +1593,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
@@ -1970,11 +1605,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
@@ -1987,11 +1617,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
@@ -2004,11 +1629,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
@@ -2021,11 +1641,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
@@ -2052,11 +1667,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
@@ -2076,11 +1686,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
@@ -2100,11 +1705,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
@@ -2124,11 +1724,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
@@ -2144,11 +1739,6 @@
         </is>
       </c>
       <c r="B127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
